--- a/net4-api/TestResults.xlsx
+++ b/net4-api/TestResults.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\azure-appservice-redis\net4-api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B734332-1C11-4979-A166-404BD76C41BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C2107D-49B7-4DB6-B060-AFDD37A40CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="9285" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>Number of instances</t>
   </si>
   <si>
-    <t>Redis</t>
-  </si>
-  <si>
     <t>Memory</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>All:</t>
+  </si>
+  <si>
+    <t>Azure Cache for Redis (C1 Basic)</t>
   </si>
 </sst>
 </file>
@@ -195,12 +195,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -212,6 +206,12 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -496,56 +496,56 @@
   <dimension ref="A2:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="1.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" customWidth="1"/>
     <col min="4" max="4" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="F2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -553,7 +553,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -561,13 +561,13 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>2544.04</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>3831.87</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>3596.66</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -584,13 +584,13 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>493.55</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>601.65</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>562.98</v>
       </c>
     </row>
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -607,13 +607,13 @@
       <c r="D6" s="1">
         <v>60</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>4578.97</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>4839.2700000000004</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="4">
         <v>4488.05</v>
       </c>
     </row>
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
@@ -630,37 +630,37 @@
       <c r="D7" s="1">
         <v>60</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>1573.85</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>1065.9100000000001</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <v>1051.42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
